--- a/信用卡贷后系统/二期需求/本行抵押贷款客户发放信用卡解押时押品控制需求/399-1信用卡中心 本行抵押贷款客户发放信用卡解押时押品控制需求-工作量.xlsx
+++ b/信用卡贷后系统/二期需求/本行抵押贷款客户发放信用卡解押时押品控制需求/399-1信用卡中心 本行抵押贷款客户发放信用卡解押时押品控制需求-工作量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7860" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -279,18 +279,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>关联贷款押品队列需求梳理 1人天
-关联贷款押品队列菜单配置 0.2人天
-关联贷款押品队列建表、实体类生产 0.3人天
-关联贷款押品队列接口 2人天
-关联贷款押品查看详情接口 1人天
-关联贷款押品队列表页面 1人天
-关联贷款押品队详情页面 1人天
-关联贷款押品队前后端联调 2人天
-关联贷款押品队测试 1人天</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>与决策平台确认文档、表结构 1人天
 决策平台取预警文件批量 3人天 
 菜单配置、建表、实体类生产 0.5人天 
@@ -301,18 +289,6 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
-    <t>设计出库信息判断输入、输出接口 2人天
-提供对外服务接口，配置出库信息反馈接口esb 3人天
-查询信用卡状态、额度、透支余额esb配置（新、旧核心） 4人天
-调用核心信用卡状态、额度、透支余额接口 1.5人天
-配置请求决策平台规则判断接口esb 2人天
-组装报文请求决策平台规则判断接口 1人天
-核心降额接口esb配置 (新旧核心)1.5人天
-调用核心降额接口(新旧核心) 1.5人天
-外围系统联调 3人天</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
     <t>押品管理-信用卡与押品关联队列删除接口 1人天
 押品管理-信用卡与押品关联队列删除录入页面 0.5人天
 信用卡与押品关联关系维护审批查询接口 2人天
@@ -332,6 +308,35 @@
   </si>
   <si>
     <t>贷后系统客户信用卡与押品的关联管理业务需求</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计出库信息判断输入、输出接口 2人天
+提供对外服务接口，配置出库信息反馈接口esb 0.5人天
+查询信用卡状态、额度、透支余额esb配置（银数） 0.5人天
+查询信用卡状态、额度、透支余额esb配置（新核心） 0.5人天
+查询信用卡状态、额度、透支余额（银数）接口 0.5人天
+查询信用卡状态、额度、透支余额（新核心）接口 0.5人天
+配置请求决策平台规则判断接口esb 0.5人天
+组装报文请求决策平台规则判断接口 1人天
+新核心降额esb配置 0.5人天
+银数降额esb配置 0.5人天
+新核心降额接口 0.5人天
+银数降额接口 0.5人天
+外围系统联调 3人天
+测试 2人天</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联贷款押品队列需求梳理 1人天
+关联贷款押品队列菜单配置 0.2人天
+关联贷款押品队列建表、实体类生产 0.3人天
+关联贷款押品队列接口 1人天
+关联贷款押品查看详情接口 1人天
+关联贷款押品队列表页面 1人天
+关联贷款押品队详情页面 1人天
+关联贷款押品队前后端联调 2人天
+关联贷款押品队测试 1人天</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -662,13 +667,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -706,12 +717,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1042,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A13" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1056,34 +1061,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="42">
       <c r="A3" s="16" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C3" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1">
@@ -1093,10 +1098,10 @@
       <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="18" t="s">
         <v>7</v>
       </c>
@@ -1108,22 +1113,22 @@
       <c r="B5" s="20">
         <v>44342</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="65" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1">
       <c r="A7" s="19" t="s">
@@ -1131,69 +1136,69 @@
       </c>
       <c r="B7" s="21">
         <f>C22</f>
-        <v>4.5227272727272725</v>
+        <v>4.1818181818181817</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" ht="27" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="35"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="35.5" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:5" ht="59" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" ht="64" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
     </row>
     <row r="13" spans="1:5" ht="17" customHeight="1">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
     </row>
     <row r="14" spans="1:5" ht="42">
       <c r="A14" s="18" t="s">
@@ -1224,7 +1229,7 @@
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="105">
@@ -1239,7 +1244,7 @@
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="180">
@@ -1284,22 +1289,22 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="150">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="284.5" customHeight="1">
       <c r="A20" s="18">
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="5">
-        <v>20.5</v>
+        <v>13</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15">
@@ -1314,7 +1319,7 @@
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="27" customHeight="1">
@@ -1324,7 +1329,7 @@
       <c r="B22" s="22"/>
       <c r="C22" s="14">
         <f>SUM(C15:C21)/22</f>
-        <v>4.5227272727272725</v>
+        <v>4.1818181818181817</v>
       </c>
       <c r="D22" s="14">
         <f>SUM(D15:D21)/22</f>
@@ -1343,11 +1348,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="A13:E13"/>
@@ -1356,6 +1356,11 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.55000000000000004" right="0.196527777777778" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -1373,11 +1378,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S4" sqref="S4"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1499,7 +1504,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E3" s="6">
         <v>0.5</v>
@@ -1557,7 +1562,7 @@
         <v>53</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E4" s="6">
         <v>0.5</v>
@@ -1731,7 +1736,7 @@
         <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" s="6">
         <v>0</v>
@@ -1780,16 +1785,16 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="150">
+    <row r="8" spans="1:25" ht="229.5" customHeight="1">
       <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="53"/>
       <c r="C8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E8" s="5">
         <v>0.5</v>
@@ -1810,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="K8" s="5">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="L8" s="6">
         <v>0</v>
       </c>
       <c r="M8" s="6">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="N8" s="6">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="O8" s="6">
         <v>3</v>
@@ -1835,7 +1840,7 @@
       </c>
       <c r="S8" s="5">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15">
@@ -1847,7 +1852,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="28">
         <v>0</v>
@@ -1892,7 +1897,6 @@
         <v>0</v>
       </c>
       <c r="S9" s="28">
-        <f t="shared" ref="S9" si="1">SUM(E9:R9)</f>
         <v>1</v>
       </c>
     </row>
@@ -1904,64 +1908,63 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="8">
-        <f>SUM(E3:E8)</f>
+        <f t="shared" ref="E10:S10" si="1">SUM(E3:E8)</f>
         <v>3</v>
       </c>
       <c r="F10" s="8">
-        <f>SUM(F3:F8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G10" s="8">
-        <f>SUM(G3:G8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="8">
-        <f>SUM(H3:H8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="8">
-        <f>SUM(I3:I8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J10" s="8">
-        <f>SUM(J3:J8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="8">
-        <f>SUM(K3:K8)</f>
-        <v>4.5</v>
+        <f>SUM(K3:K9)</f>
+        <v>5</v>
       </c>
       <c r="L10" s="8">
-        <f>SUM(L3:L8)</f>
+        <f>SUM(L3:L9)</f>
         <v>10</v>
       </c>
       <c r="M10" s="8">
-        <f>SUM(M3:M8)</f>
-        <v>55.5</v>
+        <f>SUM(M3:M9)</f>
+        <v>47</v>
       </c>
       <c r="N10" s="8">
-        <f>SUM(N3:N8)</f>
-        <v>16</v>
+        <f>SUM(N3:N9)</f>
+        <v>17.5</v>
       </c>
       <c r="O10" s="8">
-        <f>SUM(O3:O8)</f>
+        <f>SUM(O3:O9)</f>
         <v>6.5</v>
       </c>
       <c r="P10" s="8">
-        <f>SUM(P3:P8)</f>
+        <f>SUM(P3:P9)</f>
         <v>3</v>
       </c>
       <c r="Q10" s="8">
-        <f>SUM(Q3:Q8)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="R10" s="8">
-        <f>SUM(R3:R8)</f>
+        <f>SUM(R3:R9)</f>
         <v>0</v>
       </c>
       <c r="S10" s="8">
-        <f>SUM(S3:S8)</f>
-        <v>98.5</v>
+        <v>92</v>
       </c>
       <c r="T10"/>
     </row>
@@ -1986,7 +1989,7 @@
       <c r="R11" s="11"/>
       <c r="S11" s="14">
         <f>S10/22</f>
-        <v>4.4772727272727275</v>
+        <v>4.1818181818181817</v>
       </c>
     </row>
   </sheetData>

--- a/信用卡贷后系统/二期需求/本行抵押贷款客户发放信用卡解押时押品控制需求/399-1信用卡中心 本行抵押贷款客户发放信用卡解押时押品控制需求-工作量.xlsx
+++ b/信用卡贷后系统/二期需求/本行抵押贷款客户发放信用卡解押时押品控制需求/399-1信用卡中心 本行抵押贷款客户发放信用卡解押时押品控制需求-工作量.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7860"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="7860" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="68">
   <si>
     <t>重庆农村商业银行工作量评估表</t>
   </si>
@@ -325,6 +325,18 @@
 银数降额接口 0.5人天
 外围系统联调 3人天
 测试 2人天</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联贷款押品队列需求梳理 1人天
+关联贷款押品队列菜单配置 0.2人天
+关联贷款押品队列建表、实体类生产 0.3人天
+关联贷款押品队列接口 1人天
+关联贷款押品查看详情接口 1人天
+关联贷款押品队列表页面 1人天
+关联贷款押品队详情页面 1人天
+关联贷款押品队前后端联调 2人天
+关联贷款押品队测试 1人天</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -667,56 +679,56 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1047,7 +1059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A9" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1061,22 +1073,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="45" customHeight="1">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5" ht="42">
       <c r="A3" s="16" t="s">
@@ -1085,10 +1097,10 @@
       <c r="B3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="18"/>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1">
@@ -1098,10 +1110,10 @@
       <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="18" t="s">
         <v>7</v>
       </c>
@@ -1113,22 +1125,22 @@
       <c r="B5" s="20">
         <v>44342</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="18"/>
     </row>
     <row r="6" spans="1:5" ht="65" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1">
       <c r="A7" s="19" t="s">
@@ -1141,64 +1153,64 @@
       <c r="C7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="1:5" ht="27" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="38" t="s">
+      <c r="B8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="1:5" ht="35.5" customHeight="1">
       <c r="A9" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="42"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="1:5" ht="59" customHeight="1">
       <c r="A10" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
     </row>
     <row r="12" spans="1:5" ht="64" customHeight="1">
       <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
     </row>
     <row r="13" spans="1:5" ht="17" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="34"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" ht="42">
       <c r="A14" s="18" t="s">
@@ -1348,6 +1360,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="B12:E12"/>
     <mergeCell ref="A13:E13"/>
@@ -1356,11 +1373,6 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.55000000000000004" right="0.196527777777778" top="0.74791666666666701" bottom="0.74791666666666701" header="0.31388888888888899" footer="0.31388888888888899"/>
@@ -1378,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" ySplit="2" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
@@ -1504,7 +1516,7 @@
         <v>52</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="6">
         <v>0.5</v>
@@ -1908,7 +1920,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="8">
-        <f t="shared" ref="E10:S10" si="1">SUM(E3:E8)</f>
+        <f t="shared" ref="E10:Q10" si="1">SUM(E3:E8)</f>
         <v>3</v>
       </c>
       <c r="F10" s="8">
@@ -1932,27 +1944,27 @@
         <v>0</v>
       </c>
       <c r="K10" s="8">
-        <f>SUM(K3:K9)</f>
+        <f t="shared" ref="K10:P10" si="2">SUM(K3:K9)</f>
         <v>5</v>
       </c>
       <c r="L10" s="8">
-        <f>SUM(L3:L9)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="M10" s="8">
-        <f>SUM(M3:M9)</f>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
       <c r="N10" s="8">
-        <f>SUM(N3:N9)</f>
+        <f t="shared" si="2"/>
         <v>17.5</v>
       </c>
       <c r="O10" s="8">
-        <f>SUM(O3:O9)</f>
+        <f t="shared" si="2"/>
         <v>6.5</v>
       </c>
       <c r="P10" s="8">
-        <f>SUM(P3:P9)</f>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="Q10" s="8">
